--- a/data/trans_camb/P16A06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,21</t>
+          <t>-1,87; 2,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,85</t>
+          <t>-1,32; 3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,28</t>
+          <t>0,95; 5,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,09</t>
+          <t>-2,19; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,85</t>
+          <t>-2,52; 2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 5,21</t>
+          <t>0,21; 5,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,07</t>
+          <t>-1,31; 2,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,09</t>
+          <t>-1,24; 2,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,78</t>
+          <t>1,33; 4,78</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 174,86</t>
+          <t>-69,68; 206,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 245,04</t>
+          <t>-56,43; 237,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,81; 422,24</t>
+          <t>23,04; 523,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 247,39</t>
+          <t>-52,45; 235,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 178,56</t>
+          <t>-59,72; 187,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 316,57</t>
+          <t>-2,16; 366,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 127,57</t>
+          <t>-42,68; 139,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 126,13</t>
+          <t>-38,55; 142,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,33; 271,76</t>
+          <t>37,74; 273,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,93</t>
+          <t>-2,02; 2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,2</t>
+          <t>-2,09; 2,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,49</t>
+          <t>-0,27; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,03</t>
+          <t>-2,05; 2,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,72</t>
+          <t>-1,05; 3,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,47</t>
+          <t>3,35; 8,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,9</t>
+          <t>-1,43; 1,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,41</t>
+          <t>-0,91; 2,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,95</t>
+          <t>2,02; 5,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 348,53</t>
+          <t>-71,28; 306,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,23; 256,17</t>
+          <t>-67,75; 207,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 456,04</t>
+          <t>-16,12; 458,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,78; 202,23</t>
+          <t>-70,3; 231,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 360,18</t>
+          <t>-42,78; 366,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,74; 883,82</t>
+          <t>81,3; 814,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 159,22</t>
+          <t>-54,43; 172,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 191,8</t>
+          <t>-34,9; 155,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,09; 494,44</t>
+          <t>61,55; 460,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 3,62</t>
+          <t>0,17; 3,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,74</t>
+          <t>-0,6; 2,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,06</t>
+          <t>-0,7; 5,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,55</t>
+          <t>-3,17; 4,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 10,64</t>
+          <t>-0,32; 10,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 13,5</t>
+          <t>4,13; 13,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 3,44</t>
+          <t>-0,01; 3,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,95</t>
+          <t>0,21; 3,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,22</t>
+          <t>-0,27; 6,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 397,42</t>
+          <t>-3,19; 461,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 341,56</t>
+          <t>-34,5; 337,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 486,59</t>
+          <t>-30,71; 542,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 224,35</t>
+          <t>-54,28; 320,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 469,0</t>
+          <t>-9,89; 561,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,92; 694,6</t>
+          <t>45,97; 744,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 241,2</t>
+          <t>-0,98; 234,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 282,09</t>
+          <t>-0,82; 280,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 384,9</t>
+          <t>7,72; 385,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,29</t>
+          <t>-2,02; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,25</t>
+          <t>-0,58; 2,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,06</t>
+          <t>2,14; 5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,73</t>
+          <t>-1,17; 2,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,01</t>
+          <t>-0,04; 4,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,7</t>
+          <t>-0,81; 4,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,95</t>
+          <t>-1,12; 0,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,51</t>
+          <t>0,31; 2,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,53</t>
+          <t>1,2; 4,42</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,31; 17,76</t>
+          <t>-65,18; 18,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 121,1</t>
+          <t>-20,19; 130,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,83; 270,9</t>
+          <t>68,01; 276,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 108,99</t>
+          <t>-28,72; 126,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 155,97</t>
+          <t>-3,35; 183,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 166,35</t>
+          <t>-17,87; 168,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 41,68</t>
+          <t>-36,21; 43,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,09; 113,1</t>
+          <t>9,27; 112,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,95; 201,56</t>
+          <t>41,22; 192,79</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,25</t>
+          <t>-3,26; 1,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,12</t>
+          <t>-2,33; 2,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 5,15</t>
+          <t>-0,07; 5,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,59</t>
+          <t>2,23; 7,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,0</t>
+          <t>3,51; 9,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,61; 13,9</t>
+          <t>6,39; 13,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,4</t>
+          <t>0,7; 4,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,08</t>
+          <t>1,59; 5,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,27</t>
+          <t>5,33; 9,97</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-71,2; 83,46</t>
+          <t>-74,12; 75,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-59,36; 118,14</t>
+          <t>-56,0; 141,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 269,5</t>
+          <t>-6,96; 347,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>37,36; 290,8</t>
+          <t>39,58; 298,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>61,6; 364,11</t>
+          <t>60,56; 363,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>132,05; 541,97</t>
+          <t>133,06; 557,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,19; 171,3</t>
+          <t>15,72; 175,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>30,56; 201,18</t>
+          <t>33,96; 212,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>120,37; 391,87</t>
+          <t>118,96; 384,86</t>
         </is>
       </c>
     </row>
@@ -1770,42 +1770,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,92</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,71</t>
+          <t>1,23; 11,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,26</t>
+          <t>0,67; 5,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,72</t>
+          <t>2,09; 6,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,38</t>
+          <t>4,65; 9,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,41; 4,09</t>
+          <t>0,5; 4,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,61</t>
+          <t>1,58; 5,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,79</t>
+          <t>4,0; 8,01</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,15; 107,05</t>
+          <t>9,25; 103,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>32,6; 138,33</t>
+          <t>30,8; 144,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>72,65; 192,62</t>
+          <t>70,47; 195,96</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,64; 105,8</t>
+          <t>8,83; 103,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>29,5; 145,15</t>
+          <t>28,78; 139,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>67,41; 203,5</t>
+          <t>71,45; 203,13</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,73</t>
+          <t>-0,66; 0,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,37</t>
+          <t>-0,02; 1,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,96</t>
+          <t>1,7; 3,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,34</t>
+          <t>0,94; 3,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,54</t>
+          <t>2,18; 4,47</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,03</t>
+          <t>3,68; 7,06</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,72</t>
+          <t>0,4; 1,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,81</t>
+          <t>1,35; 2,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,27; 5,2</t>
+          <t>3,18; 5,28</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 46,18</t>
+          <t>-29,03; 43,31</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 79,38</t>
+          <t>-1,82; 90,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>72,49; 229,59</t>
+          <t>77,86; 238,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>24,34; 92,22</t>
+          <t>19,48; 87,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>47,82; 123,43</t>
+          <t>46,26; 122,51</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>86,32; 187,62</t>
+          <t>83,68; 191,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>11,17; 61,9</t>
+          <t>10,93; 61,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>39,52; 100,29</t>
+          <t>39,46; 100,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>101,16; 184,08</t>
+          <t>96,93; 192,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A06-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A06-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
